--- a/application/download/pws_template/template_pws_kih.xlsx
+++ b/application/download/pws_template/template_pws_kih.xlsx
@@ -421,21 +421,40 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -446,35 +465,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -491,6 +489,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -797,7 +801,7 @@
   <dimension ref="A1:AMK72"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+      <selection activeCell="A36" sqref="A36:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -838,11 +842,11 @@
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="54" t="s">
+      <c r="N1" s="30"/>
+      <c r="O1" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="54"/>
+      <c r="P1" s="52"/>
       <c r="Q1" s="6"/>
       <c r="ALY1"/>
       <c r="ALZ1"/>
@@ -1049,36 +1053,36 @@
       <c r="AMK6"/>
     </row>
     <row r="7" spans="1:1025" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="41" t="s">
+      <c r="D7" s="33"/>
+      <c r="E7" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="41" t="s">
+      <c r="F7" s="38"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="45" t="s">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="O7" s="45" t="s">
+      <c r="O7" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="P7" s="51" t="s">
+      <c r="P7" s="49" t="s">
         <v>31</v>
       </c>
       <c r="ALH7"/>
@@ -1113,22 +1117,22 @@
       <c r="AMK7"/>
     </row>
     <row r="8" spans="1:1025" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="52"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="48"/>
+      <c r="O8" s="48"/>
+      <c r="P8" s="50"/>
       <c r="ALF8"/>
       <c r="ALG8"/>
       <c r="ALH8"/>
@@ -1163,64 +1167,64 @@
       <c r="AMK8"/>
     </row>
     <row r="9" spans="1:1025" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="45" t="s">
+      <c r="A9" s="43"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="45" t="s">
+      <c r="F9" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="45" t="s">
+      <c r="G9" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="45" t="s">
+      <c r="I9" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J9" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="52"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="50"/>
     </row>
     <row r="10" spans="1:1025" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="38"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="30" t="s">
+      <c r="A10" s="43"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="K10" s="30" t="s">
+      <c r="K10" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="30" t="s">
+      <c r="L10" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="M10" s="30" t="s">
+      <c r="M10" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="53"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="51"/>
       <c r="ALF10"/>
       <c r="ALG10"/>
       <c r="ALH10"/>
@@ -1261,46 +1265,46 @@
       <c r="B11" s="25">
         <v>2</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="31">
         <v>1</v>
       </c>
-      <c r="D11" s="49">
+      <c r="D11" s="31">
         <v>2</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="31">
         <v>3</v>
       </c>
-      <c r="F11" s="49">
+      <c r="F11" s="31">
         <v>4</v>
       </c>
-      <c r="G11" s="49">
+      <c r="G11" s="31">
         <v>5</v>
       </c>
-      <c r="H11" s="49">
-        <v>6</v>
-      </c>
-      <c r="I11" s="49">
+      <c r="H11" s="31">
+        <v>6</v>
+      </c>
+      <c r="I11" s="31">
         <v>7</v>
       </c>
-      <c r="J11" s="49">
+      <c r="J11" s="31">
         <v>8</v>
       </c>
-      <c r="K11" s="49">
+      <c r="K11" s="31">
         <v>9</v>
       </c>
-      <c r="L11" s="49">
+      <c r="L11" s="31">
         <v>10</v>
       </c>
-      <c r="M11" s="49">
+      <c r="M11" s="31">
         <v>11</v>
       </c>
-      <c r="N11" s="49">
+      <c r="N11" s="31">
         <v>12</v>
       </c>
-      <c r="O11" s="49">
+      <c r="O11" s="31">
         <v>13</v>
       </c>
-      <c r="P11" s="49">
+      <c r="P11" s="31">
         <v>14</v>
       </c>
       <c r="ALF11"/>
@@ -1339,20 +1343,20 @@
     <row r="12" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="26"/>
       <c r="B12" s="27"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+      <c r="O12" s="29"/>
+      <c r="P12" s="29"/>
       <c r="ALF12"/>
       <c r="ALG12"/>
       <c r="ALH12"/>
@@ -1389,20 +1393,20 @@
     <row r="13" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26"/>
       <c r="B13" s="27"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+      <c r="O13" s="29"/>
+      <c r="P13" s="29"/>
       <c r="ALF13"/>
       <c r="ALG13"/>
       <c r="ALH13"/>
@@ -1439,20 +1443,20 @@
     <row r="14" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="31"/>
-      <c r="P14" s="31"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
       <c r="ALF14"/>
       <c r="ALG14"/>
       <c r="ALH14"/>
@@ -1489,218 +1493,218 @@
     <row r="15" spans="1:1025" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26"/>
       <c r="B15" s="27"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="31"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
     </row>
     <row r="16" spans="1:1025" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="26"/>
       <c r="B16" s="27"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="31"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="29"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
     </row>
     <row r="17" spans="1:1025" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="26"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="29"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
     </row>
     <row r="18" spans="1:1025" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="26"/>
       <c r="B18" s="27"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="31"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
     </row>
     <row r="19" spans="1:1025" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="26"/>
       <c r="B19" s="27"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="31"/>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="31"/>
-      <c r="P19" s="31"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="29"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
     </row>
     <row r="20" spans="1:1025" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
       <c r="B20" s="27"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="31"/>
-      <c r="K20" s="31"/>
-      <c r="L20" s="31"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="31"/>
-      <c r="P20" s="31"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
     </row>
     <row r="21" spans="1:1025" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="26"/>
       <c r="B21" s="27"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="29"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
     </row>
     <row r="22" spans="1:1025" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="26"/>
       <c r="B22" s="27"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
     </row>
     <row r="23" spans="1:1025" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="26"/>
       <c r="B23" s="27"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="31"/>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="31"/>
-      <c r="O23" s="31"/>
-      <c r="P23" s="31"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
     </row>
     <row r="24" spans="1:1025" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
     </row>
     <row r="25" spans="1:1025" s="23" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="26"/>
       <c r="B25" s="27"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="31"/>
-      <c r="K25" s="31"/>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="31"/>
-      <c r="O25" s="31"/>
-      <c r="P25" s="31"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
     </row>
     <row r="26" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="26"/>
       <c r="B26" s="27"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="31"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="31"/>
-      <c r="O26" s="31"/>
-      <c r="P26" s="31"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
       <c r="ALF26"/>
       <c r="ALG26"/>
       <c r="ALH26"/>
@@ -1737,20 +1741,20 @@
     <row r="27" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="26"/>
       <c r="B27" s="27"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="31"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="31"/>
-      <c r="O27" s="31"/>
-      <c r="P27" s="31"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
       <c r="ALF27"/>
       <c r="ALG27"/>
       <c r="ALH27"/>
@@ -1787,20 +1791,20 @@
     <row r="28" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="26"/>
       <c r="B28" s="27"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
       <c r="ALF28"/>
       <c r="ALG28"/>
       <c r="ALH28"/>
@@ -1837,20 +1841,20 @@
     <row r="29" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="26"/>
       <c r="B29" s="27"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
       <c r="ALF29"/>
       <c r="ALG29"/>
       <c r="ALH29"/>
@@ -1887,20 +1891,20 @@
     <row r="30" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="26"/>
       <c r="B30" s="27"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
       <c r="ALF30"/>
       <c r="ALG30"/>
       <c r="ALH30"/>
@@ -1937,20 +1941,20 @@
     <row r="31" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="26"/>
       <c r="B31" s="27"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="31"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="31"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="31"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
       <c r="ALF31"/>
       <c r="ALG31"/>
       <c r="ALH31"/>
@@ -1987,20 +1991,20 @@
     <row r="32" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="26"/>
       <c r="B32" s="27"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="31"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="31"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
       <c r="ALF32"/>
       <c r="ALG32"/>
       <c r="ALH32"/>
@@ -2037,20 +2041,20 @@
     <row r="33" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="26"/>
       <c r="B33" s="27"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="30"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="31"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="31"/>
-      <c r="O33" s="31"/>
-      <c r="P33" s="31"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="28"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="29"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
       <c r="ALF33"/>
       <c r="ALG33"/>
       <c r="ALH33"/>
@@ -2089,20 +2093,20 @@
       <c r="B34" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="31"/>
-      <c r="K34" s="31"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="31"/>
-      <c r="O34" s="31"/>
-      <c r="P34" s="31"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
       <c r="ALF34"/>
       <c r="ALG34"/>
       <c r="ALH34"/>
@@ -2141,20 +2145,20 @@
       <c r="B35" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="30"/>
-      <c r="I35" s="30"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="31"/>
-      <c r="O35" s="31"/>
-      <c r="P35" s="31"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
       <c r="ALF35"/>
       <c r="ALG35"/>
       <c r="ALH35"/>
@@ -2189,24 +2193,24 @@
       <c r="AMK35"/>
     </row>
     <row r="36" spans="1:1025" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="28"/>
-      <c r="B36" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
-      <c r="F36" s="30"/>
-      <c r="G36" s="30"/>
-      <c r="H36" s="30"/>
-      <c r="I36" s="30"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="31"/>
-      <c r="N36" s="31"/>
-      <c r="O36" s="31"/>
-      <c r="P36" s="31"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C36" s="28"/>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="29"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
       <c r="ALF36"/>
       <c r="ALG36"/>
       <c r="ALH36"/>
@@ -2241,63 +2245,63 @@
       <c r="AMK36"/>
     </row>
     <row r="37" spans="1:1025" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="35" t="s">
+      <c r="A37" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="36"/>
-      <c r="C37" s="30" t="str">
+      <c r="B37" s="41"/>
+      <c r="C37" s="28" t="str">
         <f>IF(SUM(C12:C36)=0,"-",SUM(C12:C36))</f>
         <v>-</v>
       </c>
-      <c r="D37" s="30" t="str">
+      <c r="D37" s="28" t="str">
         <f t="shared" ref="D37:P37" si="0">IF(SUM(D12:D36)=0,"-",SUM(D12:D36))</f>
         <v>-</v>
       </c>
-      <c r="E37" s="30" t="str">
+      <c r="E37" s="28" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="F37" s="30" t="str">
+      <c r="F37" s="28" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="G37" s="30" t="str">
+      <c r="G37" s="28" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="H37" s="30" t="str">
+      <c r="H37" s="28" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="I37" s="30" t="str">
+      <c r="I37" s="28" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="J37" s="30" t="str">
+      <c r="J37" s="28" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="K37" s="30" t="str">
+      <c r="K37" s="28" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="L37" s="30" t="str">
+      <c r="L37" s="28" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="M37" s="30" t="str">
+      <c r="M37" s="28" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="N37" s="30" t="str">
+      <c r="N37" s="28" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="O37" s="30" t="str">
+      <c r="O37" s="28" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
-      <c r="P37" s="30" t="str">
+      <c r="P37" s="28" t="str">
         <f t="shared" si="0"/>
         <v>-</v>
       </c>
@@ -2762,6 +2766,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="H7:M8"/>
+    <mergeCell ref="H9:H10"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J9:M9"/>
     <mergeCell ref="C7:D8"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
@@ -2769,17 +2784,6 @@
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="H7:M8"/>
-    <mergeCell ref="H9:H10"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="N7:N10"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="O1:P1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
